--- a/data/Metadata_2.13.2019.xlsx
+++ b/data/Metadata_2.13.2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthanis\Desktop\16SfolderMike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthanis\Desktop\16SsequencingForMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEBACE7-C463-4431-B640-38F48A34A443}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D23A015-37E7-4CCE-8EE9-22771738392A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3039,7 +3039,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J47" sqref="J47"/>
+      <selection pane="topRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
